--- a/data/pca/factorExposure/factorExposure_2018-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.07342014057497494</v>
+        <v>0.0481542712761416</v>
       </c>
       <c r="C2">
-        <v>-0.0527224309977504</v>
+        <v>-0.003793264891749348</v>
       </c>
       <c r="D2">
-        <v>0.07399796416371131</v>
+        <v>0.02977311902047891</v>
       </c>
       <c r="E2">
-        <v>0.01376429769201561</v>
+        <v>0.01715224880115868</v>
       </c>
       <c r="F2">
-        <v>0.1299582046043616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02945555813770047</v>
+      </c>
+      <c r="G2">
+        <v>-0.1086242347343731</v>
+      </c>
+      <c r="H2">
+        <v>0.07549171194046689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1997460160348058</v>
+        <v>0.1242510619907881</v>
       </c>
       <c r="C3">
-        <v>0.01180357781751668</v>
+        <v>0.0392578275159321</v>
       </c>
       <c r="D3">
-        <v>0.1396561558181633</v>
+        <v>0.05674601828350595</v>
       </c>
       <c r="E3">
-        <v>0.05229899897075446</v>
+        <v>0.0103306032924843</v>
       </c>
       <c r="F3">
-        <v>0.3554500452757443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0164241568457798</v>
+      </c>
+      <c r="G3">
+        <v>-0.3540460642269913</v>
+      </c>
+      <c r="H3">
+        <v>0.2458208490227998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06556155385437891</v>
+        <v>0.05607697032201432</v>
       </c>
       <c r="C4">
-        <v>-0.02872896352913685</v>
+        <v>0.00312467290010595</v>
       </c>
       <c r="D4">
-        <v>0.05410348862277625</v>
+        <v>0.04484560201145926</v>
       </c>
       <c r="E4">
-        <v>0.05732188604491495</v>
+        <v>-0.01675829702527089</v>
       </c>
       <c r="F4">
-        <v>0.0620458591141825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05137491976636147</v>
+      </c>
+      <c r="G4">
+        <v>-0.06328611718096858</v>
+      </c>
+      <c r="H4">
+        <v>0.02894109810971939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.006726679547786702</v>
+        <v>0.03238967372457532</v>
       </c>
       <c r="C6">
-        <v>-0.002612441786389721</v>
+        <v>0.0006041835713811797</v>
       </c>
       <c r="D6">
-        <v>0.001995351917311615</v>
+        <v>0.02255097254330432</v>
       </c>
       <c r="E6">
-        <v>-0.004615457317418053</v>
+        <v>-0.003928355509590921</v>
       </c>
       <c r="F6">
-        <v>0.0003754753268326822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02031783166704473</v>
+      </c>
+      <c r="G6">
+        <v>-0.01308862036174073</v>
+      </c>
+      <c r="H6">
+        <v>-0.03709933165032921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03175588447757852</v>
+        <v>0.02823415321269978</v>
       </c>
       <c r="C7">
-        <v>-0.02475028995212779</v>
+        <v>0.001893426214325276</v>
       </c>
       <c r="D7">
-        <v>0.04458334959460387</v>
+        <v>0.008852950015348745</v>
       </c>
       <c r="E7">
-        <v>0.01149910690533853</v>
+        <v>-0.03422742551740336</v>
       </c>
       <c r="F7">
-        <v>0.07132585517128781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02661990635169369</v>
+      </c>
+      <c r="G7">
+        <v>-0.05335840244324301</v>
+      </c>
+      <c r="H7">
+        <v>0.04788581537077589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0367421264197824</v>
+        <v>0.01144109364532738</v>
       </c>
       <c r="C8">
-        <v>-0.0007221552818851139</v>
+        <v>0.005170052024837199</v>
       </c>
       <c r="D8">
-        <v>0.04388536987125093</v>
+        <v>0.04051880494301791</v>
       </c>
       <c r="E8">
-        <v>0.04825115593567629</v>
+        <v>-0.01219545770431059</v>
       </c>
       <c r="F8">
-        <v>0.08361946081799645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01631941194403356</v>
+      </c>
+      <c r="G8">
+        <v>-0.07016336210824756</v>
+      </c>
+      <c r="H8">
+        <v>0.05750562746310577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.05377338141538707</v>
+        <v>0.04429198248036909</v>
       </c>
       <c r="C9">
-        <v>-0.02690071518246175</v>
+        <v>0.005922764459849087</v>
       </c>
       <c r="D9">
-        <v>0.03747237706315675</v>
+        <v>0.03063155851662996</v>
       </c>
       <c r="E9">
-        <v>0.06337865987413802</v>
+        <v>-0.01676672148352759</v>
       </c>
       <c r="F9">
-        <v>0.06257866733144749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0348694360324576</v>
+      </c>
+      <c r="G9">
+        <v>-0.07939467653165166</v>
+      </c>
+      <c r="H9">
+        <v>0.031075266933399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03639610356991968</v>
+        <v>0.05528016667993289</v>
       </c>
       <c r="C10">
-        <v>-0.07448745528221587</v>
+        <v>0.01373711392342158</v>
       </c>
       <c r="D10">
-        <v>-0.1056997066329622</v>
+        <v>-0.1636923546321153</v>
       </c>
       <c r="E10">
-        <v>-0.09836447861854962</v>
+        <v>0.02423605190391691</v>
       </c>
       <c r="F10">
-        <v>0.07555778566699303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03837135586942574</v>
+      </c>
+      <c r="G10">
+        <v>-0.04565773020139813</v>
+      </c>
+      <c r="H10">
+        <v>0.02973365226465589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04487673326741464</v>
+        <v>0.03194723251418047</v>
       </c>
       <c r="C11">
-        <v>-0.005547010661796686</v>
+        <v>0.01501500974959622</v>
       </c>
       <c r="D11">
-        <v>0.03152975119059861</v>
+        <v>0.03321530978222155</v>
       </c>
       <c r="E11">
-        <v>0.01504926826863634</v>
+        <v>0.004530138303866436</v>
       </c>
       <c r="F11">
-        <v>0.04061708060947768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.009348441231155694</v>
+      </c>
+      <c r="G11">
+        <v>-0.04633777781375101</v>
+      </c>
+      <c r="H11">
+        <v>0.01082917901981399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04450282239822097</v>
+        <v>0.03697307149887979</v>
       </c>
       <c r="C12">
-        <v>-0.007031279521315048</v>
+        <v>0.01245620642062214</v>
       </c>
       <c r="D12">
-        <v>0.02791927108104105</v>
+        <v>0.03295284504375759</v>
       </c>
       <c r="E12">
-        <v>0.03369048446129603</v>
+        <v>-0.006888959831278415</v>
       </c>
       <c r="F12">
-        <v>0.02385615886559199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01728678835091768</v>
+      </c>
+      <c r="G12">
+        <v>-0.01622986200034391</v>
+      </c>
+      <c r="H12">
+        <v>0.007026305672143227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.04867891168703465</v>
+        <v>0.0370995294872761</v>
       </c>
       <c r="C13">
-        <v>-0.02102332932692174</v>
+        <v>-0.007455646811649985</v>
       </c>
       <c r="D13">
-        <v>0.05423746434989453</v>
+        <v>0.02161483585978456</v>
       </c>
       <c r="E13">
-        <v>-0.009451169953025288</v>
+        <v>0.01809127924986568</v>
       </c>
       <c r="F13">
-        <v>0.1095056277099291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01166776126663631</v>
+      </c>
+      <c r="G13">
+        <v>-0.09095072041631802</v>
+      </c>
+      <c r="H13">
+        <v>0.03643565202830942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02369518588028669</v>
+        <v>0.01961381436341306</v>
       </c>
       <c r="C14">
-        <v>-0.01754314585367032</v>
+        <v>0.002634822981496119</v>
       </c>
       <c r="D14">
-        <v>0.0413281686843742</v>
+        <v>0.01477631478092096</v>
       </c>
       <c r="E14">
-        <v>0.02632191661731789</v>
+        <v>-0.006416500232848558</v>
       </c>
       <c r="F14">
-        <v>0.04019218637099679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02601476192207503</v>
+      </c>
+      <c r="G14">
+        <v>-0.0420334858960446</v>
+      </c>
+      <c r="H14">
+        <v>0.06849222013425658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03709505764946294</v>
+        <v>0.03015210864952626</v>
       </c>
       <c r="C16">
-        <v>-0.00535428960126029</v>
+        <v>0.01440928822341734</v>
       </c>
       <c r="D16">
-        <v>0.02730381934666252</v>
+        <v>0.03136559206523756</v>
       </c>
       <c r="E16">
-        <v>0.01543725193952617</v>
+        <v>-0.000780903630570391</v>
       </c>
       <c r="F16">
-        <v>0.02992892211773655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0153398972539225</v>
+      </c>
+      <c r="G16">
+        <v>-0.0346514843719188</v>
+      </c>
+      <c r="H16">
+        <v>0.009985812636977894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05641902392299674</v>
+        <v>0.04081416161420752</v>
       </c>
       <c r="C19">
-        <v>0.001414536743913418</v>
+        <v>0.005933580516570842</v>
       </c>
       <c r="D19">
-        <v>0.04485773558285666</v>
+        <v>0.03653736471508309</v>
       </c>
       <c r="E19">
-        <v>0.01057673935216639</v>
+        <v>0.004513453337744371</v>
       </c>
       <c r="F19">
-        <v>0.08064175677863591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01627782154956094</v>
+      </c>
+      <c r="G19">
+        <v>-0.08635196938165519</v>
+      </c>
+      <c r="H19">
+        <v>0.04857673094345737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01538988903336631</v>
+        <v>0.01193262802450065</v>
       </c>
       <c r="C20">
-        <v>-0.01163016990387541</v>
+        <v>-0.004816183844694147</v>
       </c>
       <c r="D20">
-        <v>0.04476723827594026</v>
+        <v>0.02025965724340413</v>
       </c>
       <c r="E20">
-        <v>0.03743783751368134</v>
+        <v>-0.004087938187452802</v>
       </c>
       <c r="F20">
-        <v>0.05583798039146107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0177758360011707</v>
+      </c>
+      <c r="G20">
+        <v>-0.05403930070677951</v>
+      </c>
+      <c r="H20">
+        <v>0.06257303653693337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01645334199496898</v>
+        <v>0.02446682056622103</v>
       </c>
       <c r="C21">
-        <v>0.006835174837486805</v>
+        <v>-0.003983724635965114</v>
       </c>
       <c r="D21">
-        <v>0.03879773893194173</v>
+        <v>0.01777416274618833</v>
       </c>
       <c r="E21">
-        <v>0.01778738717989021</v>
+        <v>-0.01142724968071968</v>
       </c>
       <c r="F21">
-        <v>0.09432797067062133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.003005067567544418</v>
+      </c>
+      <c r="G21">
+        <v>-0.07292123216763413</v>
+      </c>
+      <c r="H21">
+        <v>0.03550096543291199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03433550235907429</v>
+        <v>0.02940654967950639</v>
       </c>
       <c r="C24">
-        <v>-0.005672068568742504</v>
+        <v>0.00931164050750239</v>
       </c>
       <c r="D24">
-        <v>0.02463772039198121</v>
+        <v>0.02844443305907651</v>
       </c>
       <c r="E24">
-        <v>0.01600848373559825</v>
+        <v>-0.00107093582060659</v>
       </c>
       <c r="F24">
-        <v>0.04023965831110426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01205261842251571</v>
+      </c>
+      <c r="G24">
+        <v>-0.03691560940642677</v>
+      </c>
+      <c r="H24">
+        <v>0.006102483828542516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03877543675303028</v>
+        <v>0.03912818555626619</v>
       </c>
       <c r="C25">
-        <v>-0.004888039841278739</v>
+        <v>0.007565608606144069</v>
       </c>
       <c r="D25">
-        <v>0.02796412980457554</v>
+        <v>0.03041443493830669</v>
       </c>
       <c r="E25">
-        <v>0.0227003270303955</v>
+        <v>-0.001490902098512275</v>
       </c>
       <c r="F25">
-        <v>0.04875533773510576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01437127019464868</v>
+      </c>
+      <c r="G25">
+        <v>-0.04501847221552423</v>
+      </c>
+      <c r="H25">
+        <v>0.001206328218666093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01677774933890821</v>
+        <v>0.01667323427062723</v>
       </c>
       <c r="C26">
-        <v>0.00547397705749097</v>
+        <v>-0.01750211615414714</v>
       </c>
       <c r="D26">
-        <v>0.05384625215967337</v>
+        <v>0.02175757120930188</v>
       </c>
       <c r="E26">
-        <v>0.006107457848580938</v>
+        <v>0.004781681627078142</v>
       </c>
       <c r="F26">
-        <v>0.05293847156251879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.001174263810726682</v>
+      </c>
+      <c r="G26">
+        <v>-0.0502486690521496</v>
+      </c>
+      <c r="H26">
+        <v>0.04250974056040493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1006994938564716</v>
+        <v>0.05111346544369957</v>
       </c>
       <c r="C27">
-        <v>-0.04664558366092102</v>
+        <v>0.02237107496306846</v>
       </c>
       <c r="D27">
-        <v>0.03300338409817905</v>
+        <v>0.01361209914953414</v>
       </c>
       <c r="E27">
-        <v>0.03543165889952346</v>
+        <v>0.0003065478536060329</v>
       </c>
       <c r="F27">
-        <v>0.05823227654291446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02497849901052219</v>
+      </c>
+      <c r="G27">
+        <v>-0.04627653201560106</v>
+      </c>
+      <c r="H27">
+        <v>0.03481455429062014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05287709228748808</v>
+        <v>0.08488945428692142</v>
       </c>
       <c r="C28">
-        <v>-0.09300701964154005</v>
+        <v>0.007182566680588988</v>
       </c>
       <c r="D28">
-        <v>-0.1791390474792718</v>
+        <v>-0.2474546638504401</v>
       </c>
       <c r="E28">
-        <v>-0.1411250760687099</v>
+        <v>0.02810944097517986</v>
       </c>
       <c r="F28">
-        <v>0.05118725589604507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05376444333254292</v>
+      </c>
+      <c r="G28">
+        <v>-0.02259827026280814</v>
+      </c>
+      <c r="H28">
+        <v>0.04892813030462999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0237954965776743</v>
+        <v>0.0202389317075073</v>
       </c>
       <c r="C29">
-        <v>-0.01257233810853963</v>
+        <v>0.003107462036665646</v>
       </c>
       <c r="D29">
-        <v>0.03879383642272233</v>
+        <v>0.01616831730857125</v>
       </c>
       <c r="E29">
-        <v>0.03744005625489182</v>
+        <v>-0.008855575214175198</v>
       </c>
       <c r="F29">
-        <v>0.0249441618002413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02836833184634932</v>
+      </c>
+      <c r="G29">
+        <v>-0.0365153193079725</v>
+      </c>
+      <c r="H29">
+        <v>0.06836772254128963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09720776255707374</v>
+        <v>0.07641101762680698</v>
       </c>
       <c r="C30">
-        <v>-0.05094077135327751</v>
+        <v>0.01010023805833871</v>
       </c>
       <c r="D30">
-        <v>0.06751001139302872</v>
+        <v>0.05507885193265252</v>
       </c>
       <c r="E30">
-        <v>0.02447055930285193</v>
+        <v>0.04091976553985151</v>
       </c>
       <c r="F30">
-        <v>0.09408448182231427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04923256124965127</v>
+      </c>
+      <c r="G30">
+        <v>-0.09826864170268232</v>
+      </c>
+      <c r="H30">
+        <v>0.007506902563018759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06190363116480013</v>
+        <v>0.05399566485336631</v>
       </c>
       <c r="C31">
-        <v>-0.01428308384026465</v>
+        <v>0.01884455591609366</v>
       </c>
       <c r="D31">
-        <v>0.03852073904650333</v>
+        <v>0.01703017363970449</v>
       </c>
       <c r="E31">
-        <v>-0.0230406647011755</v>
+        <v>0.009185953716311189</v>
       </c>
       <c r="F31">
-        <v>0.009902996684130472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01177015933881356</v>
+      </c>
+      <c r="G31">
+        <v>-0.01403267215514081</v>
+      </c>
+      <c r="H31">
+        <v>0.0641597047434429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05089324161669742</v>
+        <v>0.02128957552072481</v>
       </c>
       <c r="C32">
-        <v>-0.01875752945324066</v>
+        <v>0.0196317975034103</v>
       </c>
       <c r="D32">
-        <v>0.05000071090093635</v>
+        <v>0.03297667798481564</v>
       </c>
       <c r="E32">
-        <v>0.04075671644058466</v>
+        <v>-0.0148798825803203</v>
       </c>
       <c r="F32">
-        <v>0.06659658429905274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04230224559299582</v>
+      </c>
+      <c r="G32">
+        <v>-0.07808626071142888</v>
+      </c>
+      <c r="H32">
+        <v>0.0097295930577742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05282698534355737</v>
+        <v>0.04272619609512116</v>
       </c>
       <c r="C33">
-        <v>0.001103528041608368</v>
+        <v>0.006762792616453346</v>
       </c>
       <c r="D33">
-        <v>0.07331000593573035</v>
+        <v>0.04549972521202611</v>
       </c>
       <c r="E33">
-        <v>0.01973438286030178</v>
+        <v>0.02037437025834089</v>
       </c>
       <c r="F33">
-        <v>0.08587158960321405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004703060665946758</v>
+      </c>
+      <c r="G33">
+        <v>-0.0766419180464307</v>
+      </c>
+      <c r="H33">
+        <v>0.0527437411815338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03872376528433431</v>
+        <v>0.03118058078226746</v>
       </c>
       <c r="C34">
-        <v>-0.01202161160134915</v>
+        <v>0.02222534795106177</v>
       </c>
       <c r="D34">
-        <v>0.03183247282270685</v>
+        <v>0.03097697092875162</v>
       </c>
       <c r="E34">
-        <v>0.02229137057839669</v>
+        <v>-0.006171301491614781</v>
       </c>
       <c r="F34">
-        <v>0.04105024643415647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02122813879169362</v>
+      </c>
+      <c r="G34">
+        <v>-0.03965430805231036</v>
+      </c>
+      <c r="H34">
+        <v>0.005834347285028583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01673546208686389</v>
+        <v>0.01892344561447626</v>
       </c>
       <c r="C36">
-        <v>-0.01213581650539728</v>
+        <v>-0.003506546676136133</v>
       </c>
       <c r="D36">
-        <v>0.009115480912492162</v>
+        <v>-0.00133329405157719</v>
       </c>
       <c r="E36">
-        <v>0.007645820701640653</v>
+        <v>-0.00165307602999536</v>
       </c>
       <c r="F36">
-        <v>0.03350986138482064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.00916094936276512</v>
+      </c>
+      <c r="G36">
+        <v>-0.03328127489917232</v>
+      </c>
+      <c r="H36">
+        <v>0.0373435539399442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01054553388237665</v>
+        <v>0.01672757403857811</v>
       </c>
       <c r="C38">
-        <v>-0.00650513084570331</v>
+        <v>0.01558930795658576</v>
       </c>
       <c r="D38">
-        <v>-0.0124522785220368</v>
+        <v>0.002085638170738069</v>
       </c>
       <c r="E38">
-        <v>0.003204487091665395</v>
+        <v>-0.003629949070157863</v>
       </c>
       <c r="F38">
-        <v>0.02872279278319795</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001540206623450164</v>
+      </c>
+      <c r="G38">
+        <v>-0.04246303107808388</v>
+      </c>
+      <c r="H38">
+        <v>0.02351863903154337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05148813811537013</v>
+        <v>0.03762240410131749</v>
       </c>
       <c r="C39">
-        <v>-0.01311843219729704</v>
+        <v>0.01232623604321026</v>
       </c>
       <c r="D39">
-        <v>0.04928609045336639</v>
+        <v>0.0550357147184</v>
       </c>
       <c r="E39">
-        <v>0.01233810245182401</v>
+        <v>0.003033611494819466</v>
       </c>
       <c r="F39">
-        <v>0.03703500567405396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.02827852884757442</v>
+      </c>
+      <c r="G39">
+        <v>-0.05541171045818822</v>
+      </c>
+      <c r="H39">
+        <v>-0.00379355495822656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05389015733154788</v>
+        <v>0.04367737138165769</v>
       </c>
       <c r="C40">
-        <v>-0.03592531043495392</v>
+        <v>0.009979891004445955</v>
       </c>
       <c r="D40">
-        <v>0.08142252390225113</v>
+        <v>0.03985721683248455</v>
       </c>
       <c r="E40">
-        <v>-0.001982401352588229</v>
+        <v>0.02325381656852193</v>
       </c>
       <c r="F40">
-        <v>0.0836963303827616</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02953115935533371</v>
+      </c>
+      <c r="G40">
+        <v>-0.07379818731595744</v>
+      </c>
+      <c r="H40">
+        <v>0.0379700635317667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01093677633501371</v>
+        <v>0.001094393850700387</v>
       </c>
       <c r="C41">
-        <v>0.00720260897961785</v>
+        <v>-0.003484414339050479</v>
       </c>
       <c r="D41">
-        <v>0.02453633599775314</v>
+        <v>0.002274305513445902</v>
       </c>
       <c r="E41">
-        <v>0.0201565885264993</v>
+        <v>-0.0005743795170379092</v>
       </c>
       <c r="F41">
-        <v>0.001246435462037005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.002659435115824526</v>
+      </c>
+      <c r="G41">
+        <v>-0.00774316739724563</v>
+      </c>
+      <c r="H41">
+        <v>0.05833359221252839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3511580696006736</v>
+        <v>0.2507628877477315</v>
       </c>
       <c r="C42">
-        <v>0.8769201554355043</v>
+        <v>-0.0334910118938188</v>
       </c>
       <c r="D42">
-        <v>-0.1084329862120978</v>
+        <v>0.3070280515139263</v>
       </c>
       <c r="E42">
-        <v>-0.2503068447255369</v>
+        <v>0.02373368026238599</v>
       </c>
       <c r="F42">
-        <v>-0.04578997670741907</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8909150188481868</v>
+      </c>
+      <c r="G42">
+        <v>0.1454488147628432</v>
+      </c>
+      <c r="H42">
+        <v>-0.008109783287408112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01134867812909152</v>
+        <v>0.000155694430240347</v>
       </c>
       <c r="C43">
-        <v>0.004066021363841852</v>
+        <v>-0.005075179006976888</v>
       </c>
       <c r="D43">
-        <v>0.02709750154664141</v>
+        <v>0.001051667958548491</v>
       </c>
       <c r="E43">
-        <v>0.01139372161461799</v>
+        <v>0.003137934651307899</v>
       </c>
       <c r="F43">
-        <v>0.02775331596177642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1.169809810857054e-07</v>
+      </c>
+      <c r="G43">
+        <v>-0.02057583246635509</v>
+      </c>
+      <c r="H43">
+        <v>0.05174285646869841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03074752786946913</v>
+        <v>0.01518177541003218</v>
       </c>
       <c r="C44">
-        <v>-0.00123331525390927</v>
+        <v>0.002640074698640948</v>
       </c>
       <c r="D44">
-        <v>0.06073602995548481</v>
+        <v>0.02582191225952369</v>
       </c>
       <c r="E44">
-        <v>0.02574979130337882</v>
+        <v>-0.003325750415575314</v>
       </c>
       <c r="F44">
-        <v>0.1491010355451309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.002278095960829051</v>
+      </c>
+      <c r="G44">
+        <v>-0.1173190016197777</v>
+      </c>
+      <c r="H44">
+        <v>0.09565833997177076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02508119098225283</v>
+        <v>0.02026151349226022</v>
       </c>
       <c r="C46">
-        <v>-0.01162690074069978</v>
+        <v>0.0001238466532192913</v>
       </c>
       <c r="D46">
-        <v>0.05524420919683846</v>
+        <v>0.03094822794701009</v>
       </c>
       <c r="E46">
-        <v>0.02745124813589844</v>
+        <v>0.003076011958839477</v>
       </c>
       <c r="F46">
-        <v>0.0229937630187636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03304842946285056</v>
+      </c>
+      <c r="G46">
+        <v>-0.05000373535812656</v>
+      </c>
+      <c r="H46">
+        <v>0.06847589429045857</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09275653130991909</v>
+        <v>0.07891644345754527</v>
       </c>
       <c r="C47">
-        <v>-0.02915495970010566</v>
+        <v>0.03795639149583391</v>
       </c>
       <c r="D47">
-        <v>0.03456126990331444</v>
+        <v>0.02448387619453463</v>
       </c>
       <c r="E47">
-        <v>0.01665434441851</v>
+        <v>0.004790143535479818</v>
       </c>
       <c r="F47">
-        <v>-0.01667982166142497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02522588711042277</v>
+      </c>
+      <c r="G47">
+        <v>0.01619157394056988</v>
+      </c>
+      <c r="H47">
+        <v>0.07499892452230848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01243469302341551</v>
+        <v>0.0175542865591154</v>
       </c>
       <c r="C48">
-        <v>-0.007885949327181898</v>
+        <v>0.00646631975566892</v>
       </c>
       <c r="D48">
-        <v>0.03213276049183189</v>
+        <v>0.00966351207494557</v>
       </c>
       <c r="E48">
-        <v>0.01546440535760625</v>
+        <v>0.0001046258099129817</v>
       </c>
       <c r="F48">
-        <v>0.04479397326474382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01116886426688198</v>
+      </c>
+      <c r="G48">
+        <v>-0.03615021028416607</v>
+      </c>
+      <c r="H48">
+        <v>0.03394545267626501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09025720993267387</v>
+        <v>0.07496998204566502</v>
       </c>
       <c r="C50">
-        <v>-0.008470780895970248</v>
+        <v>0.03308325616821076</v>
       </c>
       <c r="D50">
-        <v>0.04214423629949753</v>
+        <v>0.03654913915734851</v>
       </c>
       <c r="E50">
-        <v>0.006543798149702846</v>
+        <v>-0.008805821111579765</v>
       </c>
       <c r="F50">
-        <v>0.003449512957946327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.009748093725768939</v>
+      </c>
+      <c r="G50">
+        <v>-0.01284592357190742</v>
+      </c>
+      <c r="H50">
+        <v>0.05825628209726022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0491263028676435</v>
+        <v>0.02537290258001816</v>
       </c>
       <c r="C51">
-        <v>-0.001663750202835799</v>
+        <v>0.002628451151182228</v>
       </c>
       <c r="D51">
-        <v>0.02839737032564423</v>
+        <v>-0.008558632867497161</v>
       </c>
       <c r="E51">
-        <v>-0.04024038431133811</v>
+        <v>0.01238138780883683</v>
       </c>
       <c r="F51">
-        <v>0.1091519016629973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01523258213765775</v>
+      </c>
+      <c r="G51">
+        <v>-0.09011212360366716</v>
+      </c>
+      <c r="H51">
+        <v>0.07878744532483355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1196182932350561</v>
+        <v>0.1052610938326524</v>
       </c>
       <c r="C53">
-        <v>-0.0240990014289642</v>
+        <v>0.05061766854137546</v>
       </c>
       <c r="D53">
-        <v>0.06792694801040965</v>
+        <v>0.06032462617807717</v>
       </c>
       <c r="E53">
-        <v>0.02082810262193285</v>
+        <v>0.001903296589082985</v>
       </c>
       <c r="F53">
-        <v>-0.08057162628279432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04814653018267041</v>
+      </c>
+      <c r="G53">
+        <v>0.05611890009612865</v>
+      </c>
+      <c r="H53">
+        <v>0.0286801816090651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02119155763447227</v>
+        <v>0.01935671375521379</v>
       </c>
       <c r="C54">
-        <v>-0.02406460208277327</v>
+        <v>0.01204110200639995</v>
       </c>
       <c r="D54">
-        <v>0.02478832111721123</v>
+        <v>-0.004494647344128973</v>
       </c>
       <c r="E54">
-        <v>0.0194791911143801</v>
+        <v>-0.002357076057672075</v>
       </c>
       <c r="F54">
-        <v>0.04669704221866201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02228304071063963</v>
+      </c>
+      <c r="G54">
+        <v>-0.0428984390564412</v>
+      </c>
+      <c r="H54">
+        <v>0.07200863122187795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1028042738983795</v>
+        <v>0.08852042082132702</v>
       </c>
       <c r="C55">
-        <v>-0.02255265422727249</v>
+        <v>0.04324640235602728</v>
       </c>
       <c r="D55">
-        <v>0.01638111212972698</v>
+        <v>0.05003681334535375</v>
       </c>
       <c r="E55">
-        <v>0.04539122009617281</v>
+        <v>-0.01246009723616038</v>
       </c>
       <c r="F55">
-        <v>-0.06552252217181792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03761338798176551</v>
+      </c>
+      <c r="G55">
+        <v>0.04629103226754122</v>
+      </c>
+      <c r="H55">
+        <v>0.03851556844780928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1404884961027586</v>
+        <v>0.1374981635434828</v>
       </c>
       <c r="C56">
-        <v>-0.06555342755064396</v>
+        <v>0.07184019326635337</v>
       </c>
       <c r="D56">
-        <v>0.04226722472778382</v>
+        <v>0.05534704756398141</v>
       </c>
       <c r="E56">
-        <v>0.04642461991107886</v>
+        <v>-0.002679978345132763</v>
       </c>
       <c r="F56">
-        <v>-0.1387556562572751</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.07564417966178345</v>
+      </c>
+      <c r="G56">
+        <v>0.1010157631538963</v>
+      </c>
+      <c r="H56">
+        <v>-0.006715853125776497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.06009038515324118</v>
+        <v>0.05488640967442365</v>
       </c>
       <c r="C57">
-        <v>-0.01867397578827946</v>
+        <v>-0.001160024393929753</v>
       </c>
       <c r="D57">
-        <v>0.04748568690450929</v>
+        <v>0.02442561339142203</v>
       </c>
       <c r="E57">
-        <v>-0.00977728439801469</v>
+        <v>0.01697835103913857</v>
       </c>
       <c r="F57">
-        <v>0.07798377599106789</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.003151871064871048</v>
+      </c>
+      <c r="G57">
+        <v>-0.05869561708278884</v>
+      </c>
+      <c r="H57">
+        <v>0.02790337169385123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2248925091999112</v>
+        <v>0.1733503490366612</v>
       </c>
       <c r="C58">
-        <v>-0.04729832697980273</v>
+        <v>0.06374016355954629</v>
       </c>
       <c r="D58">
-        <v>0.1359145562553367</v>
+        <v>0.09524755001057111</v>
       </c>
       <c r="E58">
-        <v>0.01353885036406654</v>
+        <v>0.1071829857397312</v>
       </c>
       <c r="F58">
-        <v>0.2089466515299764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.02191274139463392</v>
+      </c>
+      <c r="G58">
+        <v>-0.4192907536238066</v>
+      </c>
+      <c r="H58">
+        <v>0.3159858459324062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05618921720562451</v>
+        <v>0.08617876195345742</v>
       </c>
       <c r="C59">
-        <v>-0.1150995644381836</v>
+        <v>0.01630352970183537</v>
       </c>
       <c r="D59">
-        <v>-0.127388186819002</v>
+        <v>-0.2163499963802455</v>
       </c>
       <c r="E59">
-        <v>-0.09116638115961177</v>
+        <v>0.04243885856254731</v>
       </c>
       <c r="F59">
-        <v>0.03600585484070882</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01733060502846773</v>
+      </c>
+      <c r="G59">
+        <v>-0.0469291891045764</v>
+      </c>
+      <c r="H59">
+        <v>0.01323800522952013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1721456459052945</v>
+        <v>0.1829340522350443</v>
       </c>
       <c r="C60">
-        <v>-0.07700482639415512</v>
+        <v>0.05336270878819378</v>
       </c>
       <c r="D60">
-        <v>0.01790728191680836</v>
+        <v>-0.02563926916480873</v>
       </c>
       <c r="E60">
-        <v>-0.08096624877923371</v>
+        <v>0.07060671915541492</v>
       </c>
       <c r="F60">
-        <v>0.1535253070214114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.02244829489251256</v>
+      </c>
+      <c r="G60">
+        <v>-0.197116411136141</v>
+      </c>
+      <c r="H60">
+        <v>-0.3637955843873241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03265605384283968</v>
+        <v>0.03199557172070382</v>
       </c>
       <c r="C61">
-        <v>-0.00892980968529827</v>
+        <v>0.01342202094577814</v>
       </c>
       <c r="D61">
-        <v>0.01973436237118856</v>
+        <v>0.0348661227018088</v>
       </c>
       <c r="E61">
-        <v>0.01852070701600558</v>
+        <v>-0.002224726253056244</v>
       </c>
       <c r="F61">
-        <v>0.03483502722321605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02160893448007099</v>
+      </c>
+      <c r="G61">
+        <v>-0.04120869609966382</v>
+      </c>
+      <c r="H61">
+        <v>-0.01121637201881877</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0236790786936817</v>
+        <v>0.02114260663262049</v>
       </c>
       <c r="C63">
-        <v>-0.01982787915490121</v>
+        <v>0.002991650535003659</v>
       </c>
       <c r="D63">
-        <v>0.04879783763154562</v>
+        <v>0.02481467565304919</v>
       </c>
       <c r="E63">
-        <v>0.0268319809150282</v>
+        <v>-6.753871291825053e-05</v>
       </c>
       <c r="F63">
-        <v>0.03812357231578133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02058985909819632</v>
+      </c>
+      <c r="G63">
+        <v>-0.03265978037744636</v>
+      </c>
+      <c r="H63">
+        <v>0.05574704568294343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05088759361905236</v>
+        <v>0.04711211833730999</v>
       </c>
       <c r="C64">
-        <v>-0.01053665785467354</v>
+        <v>0.01767941330944202</v>
       </c>
       <c r="D64">
-        <v>0.04433466013020797</v>
+        <v>0.04217189158310911</v>
       </c>
       <c r="E64">
-        <v>0.06129215427418387</v>
+        <v>-0.01091036341144443</v>
       </c>
       <c r="F64">
-        <v>0.05761516133699036</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02468561359581849</v>
+      </c>
+      <c r="G64">
+        <v>-0.04116537170035612</v>
+      </c>
+      <c r="H64">
+        <v>0.0347987100668801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.006311545667818639</v>
+        <v>0.0379273352393962</v>
       </c>
       <c r="C65">
-        <v>-0.001640546414366415</v>
+        <v>0.001098771557506353</v>
       </c>
       <c r="D65">
-        <v>0.001103569733342531</v>
+        <v>0.023974091945751</v>
       </c>
       <c r="E65">
-        <v>-0.005477685785297956</v>
+        <v>-0.003969227258263253</v>
       </c>
       <c r="F65">
-        <v>0.001150265808339907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02141985946237884</v>
+      </c>
+      <c r="G65">
+        <v>-0.007435413557571669</v>
+      </c>
+      <c r="H65">
+        <v>-0.04358310280777427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05002537111939552</v>
+        <v>0.04542160917913601</v>
       </c>
       <c r="C66">
-        <v>-0.02762139717165681</v>
+        <v>0.01850316105276758</v>
       </c>
       <c r="D66">
-        <v>0.05919364237973487</v>
+        <v>0.06261750736396741</v>
       </c>
       <c r="E66">
-        <v>0.03001254957725957</v>
+        <v>0.01022352390036075</v>
       </c>
       <c r="F66">
-        <v>0.07870792368264828</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05329690842297439</v>
+      </c>
+      <c r="G66">
+        <v>-0.06679519304251381</v>
+      </c>
+      <c r="H66">
+        <v>-0.01735695449569528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02817098015742233</v>
+        <v>0.03442256775674398</v>
       </c>
       <c r="C67">
-        <v>-0.01683532811343436</v>
+        <v>0.01875703223116909</v>
       </c>
       <c r="D67">
-        <v>-0.02433006665888084</v>
+        <v>-0.009228643523360145</v>
       </c>
       <c r="E67">
-        <v>-0.01337441127278168</v>
+        <v>0.002015181718138645</v>
       </c>
       <c r="F67">
-        <v>0.03576352695882112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.004861792511460059</v>
+      </c>
+      <c r="G67">
+        <v>-0.03605230110038573</v>
+      </c>
+      <c r="H67">
+        <v>0.005025537977611208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06417205348466322</v>
+        <v>0.09193619445004714</v>
       </c>
       <c r="C68">
-        <v>-0.1051746172976987</v>
+        <v>-0.00431304670829705</v>
       </c>
       <c r="D68">
-        <v>-0.1834523576334765</v>
+        <v>-0.2387023560736286</v>
       </c>
       <c r="E68">
-        <v>-0.1342864099935815</v>
+        <v>0.03777132323757373</v>
       </c>
       <c r="F68">
-        <v>-0.008423479571541555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04471291684530784</v>
+      </c>
+      <c r="G68">
+        <v>-0.001452665284351462</v>
+      </c>
+      <c r="H68">
+        <v>0.04095268924476785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07554522089121266</v>
+        <v>0.06395382193706071</v>
       </c>
       <c r="C69">
-        <v>-0.03050380724122422</v>
+        <v>0.03511179500454725</v>
       </c>
       <c r="D69">
-        <v>0.02138845216253385</v>
+        <v>0.01757149559633155</v>
       </c>
       <c r="E69">
-        <v>-0.004149335091972026</v>
+        <v>0.008114629333713952</v>
       </c>
       <c r="F69">
-        <v>0.000786564649102409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02264561089912145</v>
+      </c>
+      <c r="G69">
+        <v>-0.001190849373387465</v>
+      </c>
+      <c r="H69">
+        <v>0.05041777257423474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06329520768588184</v>
+        <v>0.08900964550863007</v>
       </c>
       <c r="C71">
-        <v>-0.1230230086470231</v>
+        <v>0.003917580970217283</v>
       </c>
       <c r="D71">
-        <v>-0.2246659325571086</v>
+        <v>-0.2572247864267957</v>
       </c>
       <c r="E71">
-        <v>-0.2180776772780356</v>
+        <v>0.04528516733535157</v>
       </c>
       <c r="F71">
-        <v>0.05490724781823738</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06530402683134598</v>
+      </c>
+      <c r="G71">
+        <v>-0.02035837609702436</v>
+      </c>
+      <c r="H71">
+        <v>0.0180093552028779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1246384600282587</v>
+        <v>0.1191461587877476</v>
       </c>
       <c r="C72">
-        <v>-0.09507123401492459</v>
+        <v>0.0638255935049956</v>
       </c>
       <c r="D72">
-        <v>0.05177293266430653</v>
+        <v>0.05624093425445132</v>
       </c>
       <c r="E72">
-        <v>0.03294773192485782</v>
+        <v>0.01768433682624393</v>
       </c>
       <c r="F72">
-        <v>0.01977910164184587</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09679299221974053</v>
+      </c>
+      <c r="G72">
+        <v>-0.1113013039877206</v>
+      </c>
+      <c r="H72">
+        <v>-0.08757245085002582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2506467392955213</v>
+        <v>0.2549633570642704</v>
       </c>
       <c r="C73">
-        <v>-0.1160636099495387</v>
+        <v>0.07054922401231571</v>
       </c>
       <c r="D73">
-        <v>-0.02762575860228169</v>
+        <v>-0.01444224086509759</v>
       </c>
       <c r="E73">
-        <v>-0.1246377552660584</v>
+        <v>0.1043953459777047</v>
       </c>
       <c r="F73">
-        <v>0.2901471295652174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.003975010109646826</v>
+      </c>
+      <c r="G73">
+        <v>-0.268704938903716</v>
+      </c>
+      <c r="H73">
+        <v>-0.5419869928800132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1311029312724475</v>
+        <v>0.1265888847954848</v>
       </c>
       <c r="C74">
-        <v>-0.0286291082642164</v>
+        <v>0.06507146434326899</v>
       </c>
       <c r="D74">
-        <v>0.03531555137681842</v>
+        <v>0.05735443562685043</v>
       </c>
       <c r="E74">
-        <v>0.02197305396149895</v>
+        <v>0.005610298724591131</v>
       </c>
       <c r="F74">
-        <v>-0.1123108136355176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.05026750543869104</v>
+      </c>
+      <c r="G74">
+        <v>0.08707044992814225</v>
+      </c>
+      <c r="H74">
+        <v>-0.008369384586769476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2219036236514723</v>
+        <v>0.2326409636468201</v>
       </c>
       <c r="C75">
-        <v>-0.09543952489735173</v>
+        <v>0.1232235114653362</v>
       </c>
       <c r="D75">
-        <v>0.08609616736680056</v>
+        <v>0.07794934183227514</v>
       </c>
       <c r="E75">
-        <v>0.02500374905734818</v>
+        <v>0.02749634228785753</v>
       </c>
       <c r="F75">
-        <v>-0.1780558427827213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1259748053073337</v>
+      </c>
+      <c r="G75">
+        <v>0.1662908254783005</v>
+      </c>
+      <c r="H75">
+        <v>0.01430941310905221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2401514528013173</v>
+        <v>0.2252471834951144</v>
       </c>
       <c r="C76">
-        <v>-0.1159244796084409</v>
+        <v>0.1215612813330705</v>
       </c>
       <c r="D76">
-        <v>0.02377898385630009</v>
+        <v>0.06412236687451418</v>
       </c>
       <c r="E76">
-        <v>0.07256268438053153</v>
+        <v>-0.0149820316725724</v>
       </c>
       <c r="F76">
-        <v>-0.2013441290841377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1387728843568405</v>
+      </c>
+      <c r="G76">
+        <v>0.1856583425626627</v>
+      </c>
+      <c r="H76">
+        <v>0.02510858840226085</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1569400735564386</v>
+        <v>0.1010885954682245</v>
       </c>
       <c r="C77">
-        <v>0.02131620981529159</v>
+        <v>0.02761777285739365</v>
       </c>
       <c r="D77">
-        <v>0.07827144167119506</v>
+        <v>0.07899635525436224</v>
       </c>
       <c r="E77">
-        <v>0.002184681408861858</v>
+        <v>0.01042684256914152</v>
       </c>
       <c r="F77">
-        <v>0.2109192935477316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03869319161111117</v>
+      </c>
+      <c r="G77">
+        <v>-0.1447599908197281</v>
+      </c>
+      <c r="H77">
+        <v>0.194740881427074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08220142663028007</v>
+        <v>0.05474547588825055</v>
       </c>
       <c r="C78">
-        <v>0.007969126151946771</v>
+        <v>0.02212751476754926</v>
       </c>
       <c r="D78">
-        <v>0.07895271590524387</v>
+        <v>0.06465979949325533</v>
       </c>
       <c r="E78">
-        <v>0.05421653981188024</v>
+        <v>-0.003780769906676447</v>
       </c>
       <c r="F78">
-        <v>0.04887280564682764</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02854243322462004</v>
+      </c>
+      <c r="G78">
+        <v>-0.07510029064311841</v>
+      </c>
+      <c r="H78">
+        <v>0.0288151196206013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.157414121829838</v>
+        <v>0.1709032389400076</v>
       </c>
       <c r="C80">
-        <v>0.09651635326765957</v>
+        <v>0.05566150730611118</v>
       </c>
       <c r="D80">
-        <v>-0.5869553873926194</v>
+        <v>-0.109837102978961</v>
       </c>
       <c r="E80">
-        <v>0.7582593387776358</v>
+        <v>-0.9615752014724523</v>
       </c>
       <c r="F80">
-        <v>0.1349191710067123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04280946945301291</v>
+      </c>
+      <c r="G80">
+        <v>-0.09559844987914927</v>
+      </c>
+      <c r="H80">
+        <v>-0.03182620783205749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1710222639917602</v>
+        <v>0.1708160360896888</v>
       </c>
       <c r="C81">
-        <v>-0.0740645286736273</v>
+        <v>0.08866177126167107</v>
       </c>
       <c r="D81">
-        <v>0.04886965449578292</v>
+        <v>0.05530015817253371</v>
       </c>
       <c r="E81">
-        <v>0.03132695513139439</v>
+        <v>0.00683426500363046</v>
       </c>
       <c r="F81">
-        <v>-0.1837269769119806</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09435896245355727</v>
+      </c>
+      <c r="G81">
+        <v>0.1235376597899923</v>
+      </c>
+      <c r="H81">
+        <v>0.02054074930050079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0531957364230119</v>
+        <v>0.04057715868677365</v>
       </c>
       <c r="C83">
-        <v>0.02269090470715016</v>
+        <v>0.01174474839940996</v>
       </c>
       <c r="D83">
-        <v>0.0634755353243123</v>
+        <v>0.03501247606448395</v>
       </c>
       <c r="E83">
-        <v>0.008358400665793287</v>
+        <v>0.01135955420373152</v>
       </c>
       <c r="F83">
-        <v>0.05685705441272122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.005877235679125212</v>
+      </c>
+      <c r="G83">
+        <v>-0.05812419515745357</v>
+      </c>
+      <c r="H83">
+        <v>0.03517218318405897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2145690836528151</v>
+        <v>0.2187714030839586</v>
       </c>
       <c r="C85">
-        <v>-0.06557181192106604</v>
+        <v>0.1061463451920809</v>
       </c>
       <c r="D85">
-        <v>0.06671861442859107</v>
+        <v>0.1019317483936352</v>
       </c>
       <c r="E85">
-        <v>0.06935959152907561</v>
+        <v>0.01022349360898166</v>
       </c>
       <c r="F85">
-        <v>-0.2351469574444657</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1197375903230591</v>
+      </c>
+      <c r="G85">
+        <v>0.1851531188352309</v>
+      </c>
+      <c r="H85">
+        <v>0.02560843095966688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02277167597515856</v>
+        <v>0.01379024599132208</v>
       </c>
       <c r="C86">
-        <v>0.006482793929932752</v>
+        <v>0.000214363243775488</v>
       </c>
       <c r="D86">
-        <v>0.06217177875245795</v>
+        <v>0.03535470982217329</v>
       </c>
       <c r="E86">
-        <v>0.0246052365471976</v>
+        <v>0.003372988773918841</v>
       </c>
       <c r="F86">
-        <v>0.08681551934873839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.002073356133342216</v>
+      </c>
+      <c r="G86">
+        <v>-0.09762479688182824</v>
+      </c>
+      <c r="H86">
+        <v>0.06455740494713147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01731042275935864</v>
+        <v>0.0248241696714001</v>
       </c>
       <c r="C87">
-        <v>-0.03867507136703439</v>
+        <v>0.0024809274412308</v>
       </c>
       <c r="D87">
-        <v>-0.03854402135143208</v>
+        <v>-0.01266123205720697</v>
       </c>
       <c r="E87">
-        <v>-0.03483774671580647</v>
+        <v>0.002696410881567938</v>
       </c>
       <c r="F87">
-        <v>0.09089554999754529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.008116036011153913</v>
+      </c>
+      <c r="G87">
+        <v>-0.1027704065748374</v>
+      </c>
+      <c r="H87">
+        <v>-0.005750072562266779</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01250451523546608</v>
+        <v>0.0365567029917771</v>
       </c>
       <c r="C88">
-        <v>-0.0132297884404416</v>
+        <v>-0.008877007724180767</v>
       </c>
       <c r="D88">
-        <v>-0.00404169037680957</v>
+        <v>-0.00895839641972004</v>
       </c>
       <c r="E88">
-        <v>0.01936008962831117</v>
+        <v>-0.004036221710247665</v>
       </c>
       <c r="F88">
-        <v>0.01667214131734965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01687590784863198</v>
+      </c>
+      <c r="G88">
+        <v>-0.003953222739261662</v>
+      </c>
+      <c r="H88">
+        <v>0.03380024233341364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08722424558555839</v>
+        <v>0.1438011017824076</v>
       </c>
       <c r="C89">
-        <v>-0.1266950849605905</v>
+        <v>0.005452280204579081</v>
       </c>
       <c r="D89">
-        <v>-0.23993134388856</v>
+        <v>-0.3809722556950507</v>
       </c>
       <c r="E89">
-        <v>-0.2252252755821334</v>
+        <v>0.08746340481521928</v>
       </c>
       <c r="F89">
-        <v>0.02672829696286062</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06972929411147782</v>
+      </c>
+      <c r="G89">
+        <v>0.00175577323862073</v>
+      </c>
+      <c r="H89">
+        <v>0.1016362110108494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08492276442090199</v>
+        <v>0.1081193570381449</v>
       </c>
       <c r="C90">
-        <v>-0.1243200403088862</v>
+        <v>0.001320503949766079</v>
       </c>
       <c r="D90">
-        <v>-0.2539778127529571</v>
+        <v>-0.3204109320270935</v>
       </c>
       <c r="E90">
-        <v>-0.1665502270433929</v>
+        <v>0.05389704261277593</v>
       </c>
       <c r="F90">
-        <v>0.01617889759621258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.06984225780936089</v>
+      </c>
+      <c r="G90">
+        <v>0.03616875336589057</v>
+      </c>
+      <c r="H90">
+        <v>0.06004943500780801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.279951922345167</v>
+        <v>0.25701165894551</v>
       </c>
       <c r="C91">
-        <v>-0.07573987537576204</v>
+        <v>0.1333895647548887</v>
       </c>
       <c r="D91">
-        <v>0.08636294865802314</v>
+        <v>0.1127139700003258</v>
       </c>
       <c r="E91">
-        <v>0.06280548939322629</v>
+        <v>0.01715803973557407</v>
       </c>
       <c r="F91">
-        <v>-0.2959563226503848</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.114319265585341</v>
+      </c>
+      <c r="G91">
+        <v>0.2428805499963323</v>
+      </c>
+      <c r="H91">
+        <v>0.04657301797316636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1271639336233664</v>
+        <v>0.1771116529703236</v>
       </c>
       <c r="C92">
-        <v>-0.1041892946721849</v>
+        <v>0.0753308934746542</v>
       </c>
       <c r="D92">
-        <v>-0.2724000874453497</v>
+        <v>-0.3305650413463609</v>
       </c>
       <c r="E92">
-        <v>-0.1614547093241878</v>
+        <v>0.04205057988913235</v>
       </c>
       <c r="F92">
-        <v>-0.01378976722768056</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.05974181882491512</v>
+      </c>
+      <c r="G92">
+        <v>0.0893342273121619</v>
+      </c>
+      <c r="H92">
+        <v>0.1777930966030878</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08132180887171744</v>
+        <v>0.1341194908194396</v>
       </c>
       <c r="C93">
-        <v>-0.1154790038200648</v>
+        <v>0.01185103945185138</v>
       </c>
       <c r="D93">
-        <v>-0.3175715426610463</v>
+        <v>-0.3843265900427281</v>
       </c>
       <c r="E93">
-        <v>-0.2287930905399514</v>
+        <v>0.0751590760445101</v>
       </c>
       <c r="F93">
-        <v>-0.01085462531093761</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1143542279033246</v>
+      </c>
+      <c r="G93">
+        <v>0.04855105200704143</v>
+      </c>
+      <c r="H93">
+        <v>0.003696031861375247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2621163324124307</v>
+        <v>0.2739610547138812</v>
       </c>
       <c r="C94">
-        <v>-0.1058946287979374</v>
+        <v>0.1199217807336762</v>
       </c>
       <c r="D94">
-        <v>0.004963307054005103</v>
+        <v>0.04787977289835073</v>
       </c>
       <c r="E94">
-        <v>0.02035530703703681</v>
+        <v>0.03940141775839132</v>
       </c>
       <c r="F94">
-        <v>-0.346995066525046</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1401976707437599</v>
+      </c>
+      <c r="G94">
+        <v>0.2709605820775363</v>
+      </c>
+      <c r="H94">
+        <v>0.03629010306048416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1601506546281544</v>
+        <v>0.1122741508298643</v>
       </c>
       <c r="C95">
-        <v>0.01085814917472347</v>
+        <v>0.06284052486943364</v>
       </c>
       <c r="D95">
-        <v>0.1464243645935056</v>
+        <v>0.07127726613737274</v>
       </c>
       <c r="E95">
-        <v>0.01155266095944813</v>
+        <v>0.08154492036506762</v>
       </c>
       <c r="F95">
-        <v>-0.01806653299704197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.002269088941994992</v>
+      </c>
+      <c r="G95">
+        <v>-0.04964644392893604</v>
+      </c>
+      <c r="H95">
+        <v>0.190051508530264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1857226892885643</v>
+        <v>0.1837365704502439</v>
       </c>
       <c r="C98">
-        <v>-0.06458881977668292</v>
+        <v>0.08296916181382286</v>
       </c>
       <c r="D98">
-        <v>-0.01660891001702254</v>
+        <v>-0.02654766143914455</v>
       </c>
       <c r="E98">
-        <v>-0.1081283241040222</v>
+        <v>0.07311997086501697</v>
       </c>
       <c r="F98">
-        <v>0.1381776500032542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01219934362333177</v>
+      </c>
+      <c r="G98">
+        <v>-0.2024745236545743</v>
+      </c>
+      <c r="H98">
+        <v>-0.3893506320168569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.000963243576937677</v>
+        <v>0.0131166947992738</v>
       </c>
       <c r="C101">
-        <v>-0.01739464870290621</v>
+        <v>0.0005123003486387549</v>
       </c>
       <c r="D101">
-        <v>0.05810489300047781</v>
+        <v>0.02267426708658734</v>
       </c>
       <c r="E101">
-        <v>0.05158436847256272</v>
+        <v>-0.004692946073452179</v>
       </c>
       <c r="F101">
-        <v>0.04587314243905711</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03423289184809921</v>
+      </c>
+      <c r="G101">
+        <v>-0.08126190686929874</v>
+      </c>
+      <c r="H101">
+        <v>0.1209998756360879</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09160994691946549</v>
+        <v>0.1115183713764571</v>
       </c>
       <c r="C102">
-        <v>-0.02378172916169315</v>
+        <v>0.04630896809997351</v>
       </c>
       <c r="D102">
-        <v>0.03998728357044051</v>
+        <v>0.04995633890403631</v>
       </c>
       <c r="E102">
-        <v>0.0540331767403432</v>
+        <v>-0.001791788444694698</v>
       </c>
       <c r="F102">
-        <v>-0.1097630339638928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05996011192442278</v>
+      </c>
+      <c r="G102">
+        <v>0.1143848723033958</v>
+      </c>
+      <c r="H102">
+        <v>0.008282037123035086</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02025734396602282</v>
+        <v>0.02461036586327172</v>
       </c>
       <c r="C103">
-        <v>-0.01019711749674586</v>
+        <v>0.01112164034145783</v>
       </c>
       <c r="D103">
-        <v>0.002007425632586171</v>
+        <v>0.009183528649775702</v>
       </c>
       <c r="E103">
-        <v>0.005272394240112973</v>
+        <v>-0.006906402693799356</v>
       </c>
       <c r="F103">
-        <v>-0.02889350499981568</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01468165929660057</v>
+      </c>
+      <c r="G103">
+        <v>0.01224235689701224</v>
+      </c>
+      <c r="H103">
+        <v>0.01718476699868649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3357119922970079</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9237716461323907</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04344708087594481</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.008085560092037359</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1450480872272216</v>
+      </c>
+      <c r="G104">
+        <v>0.04402447519255492</v>
+      </c>
+      <c r="H104">
+        <v>-0.0003153574400180285</v>
       </c>
     </row>
   </sheetData>
